--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S5/S5_storagemod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S5/S5_storagemod.xlsx
@@ -14,237 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>90.81622736323126</t>
-  </si>
-  <si>
-    <t>92.42497866691951</t>
-  </si>
-  <si>
-    <t>94.03372997060777</t>
-  </si>
-  <si>
-    <t>95.64248127429602</t>
-  </si>
-  <si>
-    <t>97.25123257798427</t>
-  </si>
-  <si>
-    <t>98.85998388167252</t>
-  </si>
-  <si>
-    <t>100.46873518536077</t>
-  </si>
-  <si>
-    <t>102.51623684460037</t>
-  </si>
-  <si>
-    <t>103.9787380297715</t>
-  </si>
-  <si>
-    <t>105.87998957049399</t>
-  </si>
-  <si>
-    <t>107.48874087418224</t>
-  </si>
-  <si>
-    <t>109.09749217787049</t>
-  </si>
-  <si>
-    <t>110.73549350526217</t>
-  </si>
-  <si>
-    <t>112.314994785247</t>
-  </si>
-  <si>
-    <t>113.92374608893525</t>
-  </si>
-  <si>
-    <t>115.5324973926235</t>
-  </si>
-  <si>
-    <t>117.14124869631175</t>
-  </si>
-  <si>
-    <t>118.75</t>
-  </si>
-  <si>
-    <t>120.35875130368827</t>
-  </si>
-  <si>
-    <t>121.96750260737652</t>
-  </si>
-  <si>
-    <t>123.72250402958188</t>
-  </si>
-  <si>
-    <t>125.33125533327014</t>
-  </si>
-  <si>
-    <t>126.94000663695839</t>
-  </si>
-  <si>
-    <t>128.54875794064662</t>
-  </si>
-  <si>
-    <t>130.11363420877976</t>
-  </si>
-  <si>
-    <t>131.76626054802315</t>
-  </si>
-  <si>
-    <t>133.45626191755423</t>
-  </si>
-  <si>
-    <t>134.9106380961411</t>
-  </si>
-  <si>
-    <t>136.65101450649473</t>
-  </si>
-  <si>
-    <t>138.259765810183</t>
-  </si>
-  <si>
-    <t>139.8100170664644</t>
-  </si>
-  <si>
-    <t>141.41876837015266</t>
-  </si>
-  <si>
-    <t>143.0275196738409</t>
-  </si>
-  <si>
-    <t>144.6687710038663</t>
-  </si>
-  <si>
-    <t>146.24502228121742</t>
-  </si>
-  <si>
-    <t>147.85377358490567</t>
-  </si>
-  <si>
-    <t>149.46252488859392</t>
-  </si>
-  <si>
-    <t>150.34002559969662</t>
-  </si>
-  <si>
-    <t>13831687.70484859</t>
-  </si>
-  <si>
-    <t>13712511.02967547</t>
-  </si>
-  <si>
-    <t>13615767.014094235</t>
-  </si>
-  <si>
-    <t>13503761.318217631</t>
-  </si>
-  <si>
-    <t>13572989.04935414</t>
-  </si>
-  <si>
-    <t>13351650.253163777</t>
-  </si>
-  <si>
-    <t>12640256.499954976</t>
-  </si>
-  <si>
-    <t>11537325.314846456</t>
-  </si>
-  <si>
-    <t>10395731.983855303</t>
-  </si>
-  <si>
-    <t>8906769.770836128</t>
-  </si>
-  <si>
-    <t>7675803.737429355</t>
-  </si>
-  <si>
-    <t>6830673.544378871</t>
-  </si>
-  <si>
-    <t>5654777.497812942</t>
-  </si>
-  <si>
-    <t>4858211.966936088</t>
-  </si>
-  <si>
-    <t>4177687.907844853</t>
-  </si>
-  <si>
-    <t>3754784.7597458228</t>
-  </si>
-  <si>
-    <t>3301602.2606975753</t>
-  </si>
-  <si>
-    <t>2958449.3346737917</t>
-  </si>
-  <si>
-    <t>2738937.521011617</t>
-  </si>
-  <si>
-    <t>2402685.1975603076</t>
-  </si>
-  <si>
-    <t>2290108.345873303</t>
-  </si>
-  <si>
-    <t>2116020.573591086</t>
-  </si>
-  <si>
-    <t>1993999.6219641978</t>
-  </si>
-  <si>
-    <t>1841189.641592414</t>
-  </si>
-  <si>
-    <t>1745764.6129852335</t>
-  </si>
-  <si>
-    <t>1638421.5956686076</t>
-  </si>
-  <si>
-    <t>1533249.7870812747</t>
-  </si>
-  <si>
-    <t>1467943.171929796</t>
-  </si>
-  <si>
-    <t>1307562.062655544</t>
-  </si>
-  <si>
-    <t>1254313.052357155</t>
-  </si>
-  <si>
-    <t>1204748.0072622583</t>
-  </si>
-  <si>
-    <t>1119577.4466528257</t>
-  </si>
-  <si>
-    <t>1115845.3638126082</t>
-  </si>
-  <si>
-    <t>987358.9049629968</t>
-  </si>
-  <si>
-    <t>985961.7607264171</t>
-  </si>
-  <si>
-    <t>915681.9929288331</t>
-  </si>
-  <si>
-    <t>916222.4176485993</t>
+    <t>Storage modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -617,307 +392,307 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
+      <c r="A2">
+        <v>90.81622736323126</v>
+      </c>
+      <c r="B2">
+        <v>13831687.70484859</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
+      <c r="A3">
+        <v>92.42497866691951</v>
+      </c>
+      <c r="B3">
+        <v>13712511.02967547</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
+      <c r="A4">
+        <v>94.03372997060777</v>
+      </c>
+      <c r="B4">
+        <v>13615767.01409424</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
+      <c r="A5">
+        <v>95.64248127429602</v>
+      </c>
+      <c r="B5">
+        <v>13503761.31821763</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
+      <c r="A6">
+        <v>97.25123257798427</v>
+      </c>
+      <c r="B6">
+        <v>13503761.31821763</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
+      <c r="A7">
+        <v>98.85998388167252</v>
+      </c>
+      <c r="B7">
+        <v>13572989.04935414</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
+      <c r="A8">
+        <v>100.4687351853608</v>
+      </c>
+      <c r="B8">
+        <v>13351650.25316378</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
+      <c r="A9">
+        <v>102.5162368446004</v>
+      </c>
+      <c r="B9">
+        <v>12640256.49995498</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
+      <c r="A10">
+        <v>103.9787380297715</v>
+      </c>
+      <c r="B10">
+        <v>11537325.31484646</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
+      <c r="A11">
+        <v>105.879989570494</v>
+      </c>
+      <c r="B11">
+        <v>10395731.9838553</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
+      <c r="A12">
+        <v>107.4887408741822</v>
+      </c>
+      <c r="B12">
+        <v>8906769.770836128</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
+      <c r="A13">
+        <v>109.0974921778705</v>
+      </c>
+      <c r="B13">
+        <v>7675803.737429355</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
+      <c r="A14">
+        <v>110.7354935052622</v>
+      </c>
+      <c r="B14">
+        <v>6830673.544378871</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
+      <c r="A15">
+        <v>112.314994785247</v>
+      </c>
+      <c r="B15">
+        <v>5654777.497812942</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
+      <c r="A16">
+        <v>113.9237460889352</v>
+      </c>
+      <c r="B16">
+        <v>4858211.966936088</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
+      <c r="A17">
+        <v>115.5324973926235</v>
+      </c>
+      <c r="B17">
+        <v>4177687.907844853</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
+      <c r="A18">
+        <v>117.1412486963117</v>
+      </c>
+      <c r="B18">
+        <v>3754784.759745823</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
+      <c r="A19">
+        <v>118.75</v>
+      </c>
+      <c r="B19">
+        <v>3301602.260697575</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
+      <c r="A20">
+        <v>120.3587513036883</v>
+      </c>
+      <c r="B20">
+        <v>2958449.334673792</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
+      <c r="A21">
+        <v>121.9675026073765</v>
+      </c>
+      <c r="B21">
+        <v>2738937.521011617</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
+      <c r="A22">
+        <v>123.7225040295819</v>
+      </c>
+      <c r="B22">
+        <v>2402685.197560308</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
+      <c r="A23">
+        <v>125.3312553332701</v>
+      </c>
+      <c r="B23">
+        <v>2290108.345873303</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
+      <c r="A24">
+        <v>126.9400066369584</v>
+      </c>
+      <c r="B24">
+        <v>2116020.573591086</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
+      <c r="A25">
+        <v>128.5487579406466</v>
+      </c>
+      <c r="B25">
+        <v>1993999.621964198</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
+      <c r="A26">
+        <v>130.1136342087798</v>
+      </c>
+      <c r="B26">
+        <v>1841189.641592414</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
+      <c r="A27">
+        <v>131.7662605480232</v>
+      </c>
+      <c r="B27">
+        <v>1745764.612985234</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>65</v>
+      <c r="A28">
+        <v>133.4562619175542</v>
+      </c>
+      <c r="B28">
+        <v>1638421.595668608</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
+      <c r="A29">
+        <v>134.9106380961411</v>
+      </c>
+      <c r="B29">
+        <v>1533249.787081275</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
+      <c r="A30">
+        <v>136.6510145064947</v>
+      </c>
+      <c r="B30">
+        <v>1467943.171929796</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
+      <c r="A31">
+        <v>138.259765810183</v>
+      </c>
+      <c r="B31">
+        <v>1307562.062655544</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
+      <c r="A32">
+        <v>139.8100170664644</v>
+      </c>
+      <c r="B32">
+        <v>1254313.052357155</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
+      <c r="A33">
+        <v>141.4187683701527</v>
+      </c>
+      <c r="B33">
+        <v>1204748.007262258</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
+      <c r="A34">
+        <v>143.0275196738409</v>
+      </c>
+      <c r="B34">
+        <v>1119577.446652826</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
+      <c r="A35">
+        <v>144.6687710038663</v>
+      </c>
+      <c r="B35">
+        <v>1115845.363812608</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
+      <c r="A36">
+        <v>146.2450222812174</v>
+      </c>
+      <c r="B36">
+        <v>987358.9049629968</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>74</v>
+      <c r="A37">
+        <v>147.8537735849057</v>
+      </c>
+      <c r="B37">
+        <v>985961.7607264171</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
+      <c r="A38">
+        <v>149.4625248885939</v>
+      </c>
+      <c r="B38">
+        <v>915681.9929288331</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>76</v>
+      <c r="A39">
+        <v>150.3400255996966</v>
+      </c>
+      <c r="B39">
+        <v>916222.4176485993</v>
       </c>
     </row>
   </sheetData>
